--- a/Data/PUCP_PSL_DGI156/glosas_freq.xlsx
+++ b/Data/PUCP_PSL_DGI156/glosas_freq.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gissella_BejaranoNic\Documents\PeruvianSignLanguage\Data\PUCP_PSL_DGI156\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF4C15D-40BD-4DAE-A39B-B2EFCCD52BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C0CC0C-895A-41D6-8D42-6E43C2F19C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="1899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1901">
   <si>
     <t>word</t>
   </si>
@@ -4159,9 +4159,6 @@
     <t xml:space="preserve">Ó </t>
   </si>
   <si>
-    <t>chosen</t>
-  </si>
-  <si>
     <t>sign</t>
   </si>
   <si>
@@ -5732,6 +5729,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>freq PUCP</t>
+  </si>
+  <si>
+    <t>chosen AEC</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -6577,7 +6583,7 @@
   <dimension ref="A1:G1384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B594"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6587,16 +6593,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>1898</v>
       </c>
       <c r="D1" t="s">
-        <v>1374</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
@@ -6673,7 +6679,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -6700,7 +6706,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -6736,7 +6742,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -6751,7 +6757,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -6814,7 +6820,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -6839,7 +6845,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1900</v>
+      </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -6851,7 +6860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>317</v>
       </c>
@@ -6901,7 +6910,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -6988,7 +6997,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -7001,7 +7010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>28</v>
       </c>
@@ -7111,7 +7120,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B42" t="s">
         <v>70</v>
@@ -7196,7 +7205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>52</v>
       </c>
@@ -7208,7 +7217,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>53</v>
       </c>
@@ -7220,7 +7229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -7232,7 +7241,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>55</v>
       </c>
@@ -7244,7 +7253,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>56</v>
       </c>
@@ -7256,7 +7265,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>57</v>
       </c>
@@ -7268,7 +7277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>58</v>
       </c>
@@ -7280,7 +7289,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>59</v>
       </c>
@@ -7292,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>60</v>
       </c>
@@ -7304,7 +7313,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>61</v>
       </c>
@@ -7316,7 +7325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>62</v>
       </c>
@@ -7328,7 +7337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>63</v>
       </c>
@@ -7340,7 +7349,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>64</v>
       </c>
@@ -7352,7 +7361,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>65</v>
       </c>
@@ -7364,7 +7373,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1900</v>
+      </c>
       <c r="B63" t="s">
         <v>66</v>
       </c>
@@ -7376,7 +7388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>67</v>
       </c>
@@ -7414,7 +7426,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B67" t="s">
         <v>90</v>
@@ -7429,7 +7441,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B68" t="s">
         <v>583</v>
@@ -7466,7 +7478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>74</v>
       </c>
@@ -7517,7 +7529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B75" t="s">
         <v>45</v>
       </c>
@@ -7663,7 +7675,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B87" t="s">
         <v>71</v>
@@ -7748,7 +7760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>97</v>
       </c>
@@ -7942,7 +7954,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B110" t="s">
         <v>254</v>
@@ -8759,7 +8771,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B178" t="s">
         <v>179</v>
       </c>
@@ -8939,7 +8951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B193" t="s">
         <v>194</v>
       </c>
@@ -8951,7 +8963,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>195</v>
       </c>
@@ -8963,7 +8975,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B195" t="s">
         <v>196</v>
       </c>
@@ -8975,7 +8987,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B196" t="s">
         <v>197</v>
       </c>
@@ -8987,7 +8999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B197" t="s">
         <v>198</v>
       </c>
@@ -8999,7 +9011,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>199</v>
       </c>
@@ -9011,7 +9023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>200</v>
       </c>
@@ -9023,7 +9035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>201</v>
       </c>
@@ -9035,7 +9047,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>202</v>
       </c>
@@ -9047,7 +9059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B202" t="s">
         <v>203</v>
       </c>
@@ -9059,7 +9071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B203" t="s">
         <v>204</v>
       </c>
@@ -9071,7 +9083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>205</v>
       </c>
@@ -9083,7 +9095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B205" t="s">
         <v>206</v>
       </c>
@@ -9095,7 +9107,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B206" t="s">
         <v>207</v>
       </c>
@@ -9107,7 +9119,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>1900</v>
+      </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
@@ -9119,7 +9134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B208" t="s">
         <v>209</v>
       </c>
@@ -9659,7 +9674,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>547</v>
       </c>
@@ -9707,7 +9722,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>258</v>
       </c>
@@ -9719,7 +9734,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>1900</v>
+      </c>
       <c r="B258" t="s">
         <v>259</v>
       </c>
@@ -9731,7 +9749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B259" t="s">
         <v>260</v>
       </c>
@@ -9743,7 +9761,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B260" t="s">
         <v>261</v>
       </c>
@@ -9755,7 +9773,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B261" t="s">
         <v>262</v>
       </c>
@@ -9767,7 +9785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B262" t="s">
         <v>263</v>
       </c>
@@ -9779,7 +9797,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B263" t="s">
         <v>264</v>
       </c>
@@ -9791,7 +9809,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B264" t="s">
         <v>265</v>
       </c>
@@ -9803,7 +9821,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B265" t="s">
         <v>266</v>
       </c>
@@ -9815,7 +9833,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B266" t="s">
         <v>267</v>
       </c>
@@ -9827,7 +9845,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>268</v>
       </c>
@@ -9839,7 +9857,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="268" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>269</v>
       </c>
@@ -9851,7 +9869,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="269" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B269" t="s">
         <v>270</v>
       </c>
@@ -9863,7 +9881,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B270" t="s">
         <v>271</v>
       </c>
@@ -9875,7 +9893,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="271" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B271" t="s">
         <v>272</v>
       </c>
@@ -9887,7 +9905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="272" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>273</v>
       </c>
@@ -10139,7 +10157,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B293" t="s">
         <v>294</v>
       </c>
@@ -10453,7 +10471,7 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B319" t="s">
         <v>550</v>
@@ -10478,7 +10496,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="321" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B321" t="s">
         <v>319</v>
       </c>
@@ -10490,7 +10508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="322" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>320</v>
       </c>
@@ -10502,7 +10520,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="323" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B323" t="s">
         <v>321</v>
       </c>
@@ -10514,7 +10532,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="324" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>1900</v>
+      </c>
       <c r="B324" t="s">
         <v>322</v>
       </c>
@@ -10526,7 +10547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B325" t="s">
         <v>323</v>
       </c>
@@ -10538,7 +10559,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="326" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B326" t="s">
         <v>324</v>
       </c>
@@ -10550,7 +10571,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="327" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B327" t="s">
         <v>325</v>
       </c>
@@ -10562,7 +10583,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="328" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>326</v>
       </c>
@@ -10574,7 +10595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="329" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B329" t="s">
         <v>327</v>
       </c>
@@ -10586,7 +10607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="330" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B330" t="s">
         <v>328</v>
       </c>
@@ -10598,7 +10619,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="331" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B331" t="s">
         <v>329</v>
       </c>
@@ -10610,7 +10631,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="332" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
         <v>330</v>
       </c>
@@ -10622,7 +10643,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="333" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B333" t="s">
         <v>331</v>
       </c>
@@ -10634,7 +10655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="334" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>332</v>
       </c>
@@ -10646,7 +10667,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="335" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B335" t="s">
         <v>333</v>
       </c>
@@ -10658,7 +10679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="336" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B336" t="s">
         <v>334</v>
       </c>
@@ -11006,7 +11027,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="365" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B365" t="s">
         <v>363</v>
       </c>
@@ -13324,7 +13345,7 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B558" t="s">
         <v>113</v>
@@ -13361,7 +13382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="561" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B561" t="s">
         <v>36</v>
       </c>
@@ -13762,7 +13783,7 @@
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="B594" t="s">
         <v>35</v>
@@ -15791,7 +15812,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="763" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="763" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B763" t="s">
         <v>752</v>
       </c>
@@ -16655,7 +16676,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="835" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="835" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B835" t="s">
         <v>824</v>
       </c>
@@ -17015,7 +17036,10 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="865" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A865" t="s">
+        <v>1900</v>
+      </c>
       <c r="B865" t="s">
         <v>854</v>
       </c>
@@ -17027,7 +17051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="866" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B866" t="s">
         <v>855</v>
       </c>
@@ -17039,7 +17063,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="867" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B867" t="s">
         <v>856</v>
       </c>
@@ -17051,7 +17075,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="868" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B868" t="s">
         <v>857</v>
       </c>
@@ -17063,7 +17087,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="869" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B869" t="s">
         <v>858</v>
       </c>
@@ -17075,7 +17099,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="870" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B870" t="s">
         <v>859</v>
       </c>
@@ -17087,7 +17111,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="871" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B871" t="s">
         <v>860</v>
       </c>
@@ -17099,7 +17123,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="872" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B872" t="s">
         <v>861</v>
       </c>
@@ -17111,7 +17135,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="873" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B873" t="s">
         <v>862</v>
       </c>
@@ -17123,7 +17147,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="874" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B874" t="s">
         <v>863</v>
       </c>
@@ -17135,7 +17159,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="875" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B875" t="s">
         <v>864</v>
       </c>
@@ -17147,7 +17171,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="876" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B876" t="s">
         <v>865</v>
       </c>
@@ -17159,7 +17183,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="877" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B877" t="s">
         <v>866</v>
       </c>
@@ -17171,7 +17195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="878" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B878" t="s">
         <v>867</v>
       </c>
@@ -17183,7 +17207,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="879" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B879" t="s">
         <v>868</v>
       </c>
@@ -17195,7 +17219,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="880" spans="2:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="B880" t="s">
         <v>869</v>
       </c>
@@ -23266,10 +23290,28 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1384" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="10"/>
+        <filter val="11"/>
+        <filter val="12"/>
+        <filter val="13"/>
+        <filter val="14"/>
+        <filter val="15"/>
+        <filter val="16"/>
+        <filter val="18"/>
+        <filter val="19"/>
+        <filter val="21"/>
+        <filter val="22"/>
+        <filter val="23"/>
+        <filter val="24"/>
+        <filter val="28"/>
+        <filter val="31"/>
+        <filter val="39"/>
+        <filter val="42"/>
+        <filter val="45"/>
+        <filter val="63"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23291,10 +23333,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1" t="s">
         <v>1375</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1376</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -23302,7 +23344,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B2" t="str">
         <f>UPPER(A2)</f>
@@ -23314,7 +23356,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B66" si="0">UPPER(A3)</f>
@@ -23326,7 +23368,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -23338,7 +23380,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -23350,7 +23392,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -23362,7 +23404,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -23374,7 +23416,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -23386,7 +23428,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -23398,7 +23440,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -23410,7 +23452,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -23422,7 +23464,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -23434,7 +23476,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -23446,7 +23488,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -23458,7 +23500,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -23470,7 +23512,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -23482,7 +23524,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -23494,7 +23536,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -23518,7 +23560,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -23530,7 +23572,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -23542,7 +23584,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -23554,7 +23596,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -23566,7 +23608,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -23578,7 +23620,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -23590,7 +23632,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -23602,7 +23644,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -23614,7 +23656,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -23626,7 +23668,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -23638,7 +23680,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -23650,7 +23692,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -23662,7 +23704,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -23674,7 +23716,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -23686,7 +23728,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -23698,7 +23740,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -23710,7 +23752,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -23722,7 +23764,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -23734,7 +23776,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -23746,7 +23788,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -23758,7 +23800,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -23770,7 +23812,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -23782,7 +23824,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -23794,7 +23836,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -23806,7 +23848,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -23818,7 +23860,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -23830,7 +23872,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -23842,7 +23884,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
@@ -23854,7 +23896,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
@@ -23866,7 +23908,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
@@ -23878,7 +23920,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
@@ -23890,7 +23932,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
@@ -23902,7 +23944,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
@@ -23914,7 +23956,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
@@ -23926,7 +23968,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
@@ -23938,7 +23980,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
@@ -23950,7 +23992,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
@@ -23962,7 +24004,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
@@ -23974,7 +24016,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
@@ -23986,7 +24028,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
@@ -23998,7 +24040,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
@@ -24010,7 +24052,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
@@ -24022,7 +24064,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
@@ -24034,7 +24076,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
@@ -24046,7 +24088,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
@@ -24058,7 +24100,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
@@ -24070,7 +24112,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="0"/>
@@ -24082,7 +24124,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" ref="B67:B130" si="1">UPPER(A67)</f>
@@ -24094,7 +24136,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
@@ -24106,7 +24148,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
@@ -24118,7 +24160,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
@@ -24130,7 +24172,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
@@ -24142,7 +24184,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
@@ -24154,7 +24196,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
@@ -24166,7 +24208,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
@@ -24178,7 +24220,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
@@ -24190,7 +24232,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
@@ -24202,7 +24244,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
@@ -24214,7 +24256,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
@@ -24226,7 +24268,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
@@ -24238,7 +24280,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
@@ -24250,7 +24292,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
@@ -24262,7 +24304,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
@@ -24274,7 +24316,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
@@ -24286,7 +24328,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
@@ -24298,7 +24340,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
@@ -24310,7 +24352,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
@@ -24322,7 +24364,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
@@ -24334,7 +24376,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
@@ -24346,7 +24388,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
@@ -24358,7 +24400,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
@@ -24370,7 +24412,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
@@ -24382,7 +24424,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
@@ -24394,7 +24436,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
@@ -24406,7 +24448,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
@@ -24418,7 +24460,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
@@ -24430,7 +24472,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
@@ -24442,7 +24484,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
@@ -24454,7 +24496,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
@@ -24466,7 +24508,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
@@ -24478,7 +24520,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
@@ -24490,7 +24532,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
@@ -24502,7 +24544,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
@@ -24514,7 +24556,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
@@ -24526,7 +24568,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
@@ -24538,7 +24580,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
@@ -24550,7 +24592,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
@@ -24562,7 +24604,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
@@ -24574,7 +24616,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
@@ -24586,7 +24628,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
@@ -24598,7 +24640,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
@@ -24610,7 +24652,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
@@ -24622,7 +24664,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
@@ -24634,7 +24676,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
@@ -24646,7 +24688,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
@@ -24658,7 +24700,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
@@ -24670,7 +24712,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
@@ -24682,7 +24724,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
@@ -24694,7 +24736,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
@@ -24706,7 +24748,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
@@ -24718,7 +24760,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
@@ -24730,7 +24772,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
@@ -24742,7 +24784,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
@@ -24754,7 +24796,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
@@ -24766,7 +24808,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
@@ -24778,7 +24820,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
@@ -24790,7 +24832,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
@@ -24802,7 +24844,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
@@ -24814,7 +24856,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
@@ -24826,7 +24868,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
@@ -24838,7 +24880,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="1"/>
@@ -24850,7 +24892,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" ref="B131:B194" si="2">UPPER(A131)</f>
@@ -24862,7 +24904,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
@@ -24874,7 +24916,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
@@ -24886,7 +24928,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
@@ -24898,7 +24940,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
@@ -24910,7 +24952,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
@@ -24922,7 +24964,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
@@ -24934,7 +24976,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
@@ -24946,7 +24988,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
@@ -24958,7 +25000,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
@@ -24970,7 +25012,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
@@ -24982,7 +25024,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
@@ -24994,7 +25036,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
@@ -25006,7 +25048,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
@@ -25018,7 +25060,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
@@ -25030,7 +25072,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
@@ -25042,7 +25084,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
@@ -25054,7 +25096,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
@@ -25066,7 +25108,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
@@ -25078,7 +25120,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
@@ -25090,7 +25132,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
@@ -25102,7 +25144,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
@@ -25114,7 +25156,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
@@ -25126,7 +25168,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
@@ -25138,7 +25180,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
@@ -25150,7 +25192,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
@@ -25162,7 +25204,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="2"/>
@@ -25174,7 +25216,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
@@ -25186,7 +25228,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
@@ -25198,7 +25240,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
@@ -25210,7 +25252,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
@@ -25222,7 +25264,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
@@ -25243,7 +25285,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
@@ -25255,7 +25297,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
@@ -25267,7 +25309,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>
@@ -25279,7 +25321,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B167" t="str">
         <f t="shared" si="2"/>
@@ -25291,7 +25333,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B168" t="str">
         <f t="shared" si="2"/>
@@ -25303,7 +25345,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B169" t="str">
         <f t="shared" si="2"/>
@@ -25315,7 +25357,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B170" t="str">
         <f t="shared" si="2"/>
@@ -25327,7 +25369,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B171" t="str">
         <f t="shared" si="2"/>
@@ -25339,7 +25381,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B172" t="str">
         <f t="shared" si="2"/>
@@ -25351,7 +25393,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B173" t="str">
         <f t="shared" si="2"/>
@@ -25363,7 +25405,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B174" t="str">
         <f t="shared" si="2"/>
@@ -25375,7 +25417,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B175" t="str">
         <f t="shared" si="2"/>
@@ -25387,7 +25429,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="B176" t="str">
         <f t="shared" si="2"/>
@@ -25399,7 +25441,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B177" t="str">
         <f t="shared" si="2"/>
@@ -25411,7 +25453,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B178" t="str">
         <f t="shared" si="2"/>
@@ -25423,7 +25465,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B179" t="str">
         <f t="shared" si="2"/>
@@ -25435,7 +25477,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B180" t="str">
         <f t="shared" si="2"/>
@@ -25447,7 +25489,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B181" t="str">
         <f t="shared" si="2"/>
@@ -25459,7 +25501,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B182" t="str">
         <f t="shared" si="2"/>
@@ -25471,7 +25513,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B183" t="str">
         <f t="shared" si="2"/>
@@ -25483,7 +25525,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B184" t="str">
         <f t="shared" si="2"/>
@@ -25495,7 +25537,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B185" t="str">
         <f t="shared" si="2"/>
@@ -25507,7 +25549,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="B186" t="str">
         <f t="shared" si="2"/>
@@ -25519,7 +25561,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="B187" t="str">
         <f t="shared" si="2"/>
@@ -25531,7 +25573,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="B188" t="str">
         <f t="shared" si="2"/>
@@ -25543,7 +25585,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="B189" t="str">
         <f t="shared" si="2"/>
@@ -25555,7 +25597,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B190" t="str">
         <f t="shared" si="2"/>
@@ -25567,7 +25609,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B191" t="str">
         <f t="shared" si="2"/>
@@ -25579,7 +25621,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B192" t="str">
         <f t="shared" si="2"/>
@@ -25591,7 +25633,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="B193" t="str">
         <f t="shared" si="2"/>
@@ -25603,7 +25645,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B194" t="str">
         <f t="shared" si="2"/>
@@ -25615,7 +25657,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B195" t="str">
         <f t="shared" ref="B195:B258" si="3">UPPER(A195)</f>
@@ -25627,7 +25669,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B196" t="str">
         <f t="shared" si="3"/>
@@ -25639,7 +25681,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="B197" t="str">
         <f t="shared" si="3"/>
@@ -25651,7 +25693,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B198" t="str">
         <f t="shared" si="3"/>
@@ -25663,7 +25705,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B199" t="str">
         <f t="shared" si="3"/>
@@ -25675,7 +25717,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="B200" t="str">
         <f t="shared" si="3"/>
@@ -25687,7 +25729,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B201" t="str">
         <f t="shared" si="3"/>
@@ -25699,7 +25741,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B202" t="str">
         <f t="shared" si="3"/>
@@ -25711,7 +25753,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="B203" t="str">
         <f t="shared" si="3"/>
@@ -25723,7 +25765,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="B204" t="str">
         <f t="shared" si="3"/>
@@ -25735,7 +25777,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B205" t="str">
         <f t="shared" si="3"/>
@@ -25747,7 +25789,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B206" t="str">
         <f t="shared" si="3"/>
@@ -25759,7 +25801,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="B207" t="str">
         <f t="shared" si="3"/>
@@ -25771,7 +25813,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="B208" t="str">
         <f t="shared" si="3"/>
@@ -25783,7 +25825,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B209" t="str">
         <f t="shared" si="3"/>
@@ -25795,7 +25837,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B210" t="str">
         <f t="shared" si="3"/>
@@ -25807,7 +25849,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B211" t="str">
         <f t="shared" si="3"/>
@@ -25819,7 +25861,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B212" t="str">
         <f t="shared" si="3"/>
@@ -25831,7 +25873,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="B213" t="str">
         <f t="shared" si="3"/>
@@ -25843,7 +25885,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B214" t="str">
         <f t="shared" si="3"/>
@@ -25855,7 +25897,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B215" t="str">
         <f t="shared" si="3"/>
@@ -25867,7 +25909,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B216" t="str">
         <f t="shared" si="3"/>
@@ -25879,7 +25921,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B217" t="str">
         <f t="shared" si="3"/>
@@ -25891,7 +25933,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="B218" t="str">
         <f t="shared" si="3"/>
@@ -25903,7 +25945,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="B219" t="str">
         <f t="shared" si="3"/>
@@ -25915,7 +25957,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B220" t="str">
         <f t="shared" si="3"/>
@@ -25927,7 +25969,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B221" t="str">
         <f t="shared" si="3"/>
@@ -25939,7 +25981,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="B222" t="str">
         <f t="shared" si="3"/>
@@ -25951,7 +25993,7 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B223" t="str">
         <f t="shared" si="3"/>
@@ -25963,7 +26005,7 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B224" t="str">
         <f t="shared" si="3"/>
@@ -25975,7 +26017,7 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B225" t="str">
         <f t="shared" si="3"/>
@@ -25987,7 +26029,7 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B226" t="str">
         <f t="shared" si="3"/>
@@ -25999,7 +26041,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B227" t="str">
         <f t="shared" si="3"/>
@@ -26011,7 +26053,7 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B228" t="str">
         <f t="shared" si="3"/>
@@ -26023,7 +26065,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B229" t="str">
         <f t="shared" si="3"/>
@@ -26035,7 +26077,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B230" t="str">
         <f t="shared" si="3"/>
@@ -26047,7 +26089,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B231" t="str">
         <f t="shared" si="3"/>
@@ -26059,7 +26101,7 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B232" t="str">
         <f t="shared" si="3"/>
@@ -26071,7 +26113,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B233" t="str">
         <f t="shared" si="3"/>
@@ -26083,7 +26125,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B234" t="str">
         <f t="shared" si="3"/>
@@ -26095,7 +26137,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B235" t="str">
         <f t="shared" si="3"/>
@@ -26107,7 +26149,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B236" t="str">
         <f t="shared" si="3"/>
@@ -26119,7 +26161,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B237" t="str">
         <f t="shared" si="3"/>
@@ -26131,7 +26173,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B238" t="str">
         <f t="shared" si="3"/>
@@ -26143,7 +26185,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B239" t="str">
         <f t="shared" si="3"/>
@@ -26155,7 +26197,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B240" t="str">
         <f t="shared" si="3"/>
@@ -26167,7 +26209,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B241" t="str">
         <f t="shared" si="3"/>
@@ -26179,7 +26221,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B242" t="str">
         <f t="shared" si="3"/>
@@ -26191,7 +26233,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B243" t="str">
         <f t="shared" si="3"/>
@@ -26203,7 +26245,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B244" t="str">
         <f t="shared" si="3"/>
@@ -26215,7 +26257,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B245" t="str">
         <f t="shared" si="3"/>
@@ -26227,7 +26269,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B246" t="str">
         <f t="shared" si="3"/>
@@ -26239,7 +26281,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B247" t="str">
         <f t="shared" si="3"/>
@@ -26251,7 +26293,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B248" t="str">
         <f t="shared" si="3"/>
@@ -26263,7 +26305,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B249" t="str">
         <f t="shared" si="3"/>
@@ -26275,7 +26317,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B250" t="str">
         <f t="shared" si="3"/>
@@ -26287,7 +26329,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B251" t="str">
         <f t="shared" si="3"/>
@@ -26299,7 +26341,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B252" t="str">
         <f t="shared" si="3"/>
@@ -26311,7 +26353,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B253" t="str">
         <f t="shared" si="3"/>
@@ -26323,7 +26365,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B254" t="str">
         <f t="shared" si="3"/>
@@ -26335,7 +26377,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B255" t="str">
         <f t="shared" si="3"/>
@@ -26347,7 +26389,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B256" t="str">
         <f t="shared" si="3"/>
@@ -26359,7 +26401,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B257" t="str">
         <f t="shared" si="3"/>
@@ -26371,7 +26413,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B258" t="str">
         <f t="shared" si="3"/>
@@ -26383,7 +26425,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B259" t="str">
         <f t="shared" ref="B259:B322" si="4">UPPER(A259)</f>
@@ -26395,7 +26437,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B260" t="str">
         <f t="shared" si="4"/>
@@ -26407,7 +26449,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B261" t="str">
         <f t="shared" si="4"/>
@@ -26419,7 +26461,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B262" t="str">
         <f t="shared" si="4"/>
@@ -26431,7 +26473,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B263" t="str">
         <f t="shared" si="4"/>
@@ -26443,7 +26485,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B264" t="str">
         <f t="shared" si="4"/>
@@ -26455,7 +26497,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B265" t="str">
         <f t="shared" si="4"/>
@@ -26467,7 +26509,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B266" t="str">
         <f t="shared" si="4"/>
@@ -26479,7 +26521,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B267" t="str">
         <f t="shared" si="4"/>
@@ -26491,7 +26533,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B268" t="str">
         <f t="shared" si="4"/>
@@ -26503,7 +26545,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B269" t="str">
         <f t="shared" si="4"/>
@@ -26515,7 +26557,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B270" t="str">
         <f t="shared" si="4"/>
@@ -26527,7 +26569,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B271" t="str">
         <f t="shared" si="4"/>
@@ -26539,7 +26581,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B272" t="str">
         <f t="shared" si="4"/>
@@ -26551,7 +26593,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B273" t="str">
         <f t="shared" si="4"/>
@@ -26563,7 +26605,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B274" t="str">
         <f t="shared" si="4"/>
@@ -26575,7 +26617,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B275" t="str">
         <f t="shared" si="4"/>
@@ -26587,7 +26629,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B276" t="str">
         <f t="shared" si="4"/>
@@ -26599,7 +26641,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B277" t="str">
         <f t="shared" si="4"/>
@@ -26611,7 +26653,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B278" t="str">
         <f t="shared" si="4"/>
@@ -26623,7 +26665,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B279" t="str">
         <f t="shared" si="4"/>
@@ -26635,7 +26677,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B280" t="str">
         <f t="shared" si="4"/>
@@ -26647,7 +26689,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B281" t="str">
         <f t="shared" si="4"/>
@@ -26659,7 +26701,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B282" t="str">
         <f t="shared" si="4"/>
@@ -26671,7 +26713,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B283" t="str">
         <f t="shared" si="4"/>
@@ -26683,7 +26725,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B284" t="str">
         <f t="shared" si="4"/>
@@ -26695,7 +26737,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B285" t="str">
         <f t="shared" si="4"/>
@@ -26707,7 +26749,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B286" t="str">
         <f t="shared" si="4"/>
@@ -26719,7 +26761,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B287" t="str">
         <f t="shared" si="4"/>
@@ -26731,7 +26773,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B288" t="str">
         <f t="shared" si="4"/>
@@ -26743,7 +26785,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B289" t="str">
         <f t="shared" si="4"/>
@@ -26755,7 +26797,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B290" t="str">
         <f t="shared" si="4"/>
@@ -26767,7 +26809,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B291" t="str">
         <f t="shared" si="4"/>
@@ -26779,7 +26821,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B292" t="str">
         <f t="shared" si="4"/>
@@ -26791,7 +26833,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B293" t="str">
         <f t="shared" si="4"/>
@@ -26803,7 +26845,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B294" t="str">
         <f t="shared" si="4"/>
@@ -26815,7 +26857,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B295" t="str">
         <f t="shared" si="4"/>
@@ -26827,7 +26869,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B296" t="str">
         <f t="shared" si="4"/>
@@ -26839,7 +26881,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B297" t="str">
         <f t="shared" si="4"/>
@@ -26851,7 +26893,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B298" t="str">
         <f t="shared" si="4"/>
@@ -26863,7 +26905,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B299" t="str">
         <f t="shared" si="4"/>
@@ -26875,7 +26917,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B300" t="str">
         <f t="shared" si="4"/>
@@ -26887,7 +26929,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B301" t="str">
         <f t="shared" si="4"/>
@@ -26899,7 +26941,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B302" t="str">
         <f t="shared" si="4"/>
@@ -26911,7 +26953,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B303" t="str">
         <f t="shared" si="4"/>
@@ -26923,7 +26965,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B304" t="str">
         <f t="shared" si="4"/>
@@ -26935,7 +26977,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B305" t="str">
         <f t="shared" si="4"/>
@@ -26947,7 +26989,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B306" t="str">
         <f t="shared" si="4"/>
@@ -26959,7 +27001,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B307" t="str">
         <f t="shared" si="4"/>
@@ -26971,7 +27013,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B308" t="str">
         <f t="shared" si="4"/>
@@ -26983,7 +27025,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B309" t="str">
         <f t="shared" si="4"/>
@@ -26995,7 +27037,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B310" t="str">
         <f t="shared" si="4"/>
@@ -27007,7 +27049,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B311" t="str">
         <f t="shared" si="4"/>
@@ -27019,7 +27061,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B312" t="str">
         <f t="shared" si="4"/>
@@ -27031,7 +27073,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B313" t="str">
         <f t="shared" si="4"/>
@@ -27043,7 +27085,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B314" t="str">
         <f t="shared" si="4"/>
@@ -27055,7 +27097,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B315" t="str">
         <f t="shared" si="4"/>
@@ -27067,7 +27109,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B316" t="str">
         <f t="shared" si="4"/>
@@ -27079,7 +27121,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B317" t="str">
         <f t="shared" si="4"/>
@@ -27091,7 +27133,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B318" t="str">
         <f t="shared" si="4"/>
@@ -27103,7 +27145,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B319" t="str">
         <f t="shared" si="4"/>
@@ -27115,7 +27157,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B320" t="str">
         <f t="shared" si="4"/>
@@ -27127,7 +27169,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B321" t="str">
         <f t="shared" si="4"/>
@@ -27139,7 +27181,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B322" t="str">
         <f t="shared" si="4"/>
@@ -27151,7 +27193,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B323" t="str">
         <f t="shared" ref="B323:B386" si="5">UPPER(A323)</f>
@@ -27163,7 +27205,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B324" t="str">
         <f t="shared" si="5"/>
@@ -27175,7 +27217,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B325" t="str">
         <f t="shared" si="5"/>
@@ -27187,7 +27229,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B326" t="str">
         <f t="shared" si="5"/>
@@ -27199,7 +27241,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B327" t="str">
         <f t="shared" si="5"/>
@@ -27211,7 +27253,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B328" t="str">
         <f t="shared" si="5"/>
@@ -27223,7 +27265,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B329" t="str">
         <f t="shared" si="5"/>
@@ -27235,7 +27277,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B330" t="str">
         <f t="shared" si="5"/>
@@ -27247,7 +27289,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B331" t="str">
         <f t="shared" si="5"/>
@@ -27259,7 +27301,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B332" t="str">
         <f t="shared" si="5"/>
@@ -27271,7 +27313,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B333" t="str">
         <f t="shared" si="5"/>
@@ -27283,7 +27325,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B334" t="str">
         <f t="shared" si="5"/>
@@ -27295,7 +27337,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B335" t="str">
         <f t="shared" si="5"/>
@@ -27307,7 +27349,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B336" t="str">
         <f t="shared" si="5"/>
@@ -27319,7 +27361,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B337" t="str">
         <f t="shared" si="5"/>
@@ -27331,7 +27373,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B338" t="str">
         <f t="shared" si="5"/>
@@ -27343,7 +27385,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B339" t="str">
         <f t="shared" si="5"/>
@@ -27355,7 +27397,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B340" t="str">
         <f t="shared" si="5"/>
@@ -27367,7 +27409,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B341" t="str">
         <f t="shared" si="5"/>
@@ -27379,7 +27421,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B342" t="str">
         <f t="shared" si="5"/>
@@ -27391,7 +27433,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B343" t="str">
         <f t="shared" si="5"/>
@@ -27403,7 +27445,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B344" t="str">
         <f t="shared" si="5"/>
@@ -27415,7 +27457,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B345" t="str">
         <f t="shared" si="5"/>
@@ -27427,7 +27469,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B346" t="str">
         <f t="shared" si="5"/>
@@ -27439,7 +27481,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B347" t="str">
         <f t="shared" si="5"/>
@@ -27451,7 +27493,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B348" t="str">
         <f t="shared" si="5"/>
@@ -27463,7 +27505,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B349" t="str">
         <f t="shared" si="5"/>
@@ -27475,7 +27517,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B350" t="str">
         <f t="shared" si="5"/>
@@ -27487,7 +27529,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B351" t="str">
         <f t="shared" si="5"/>
@@ -27499,7 +27541,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B352" t="str">
         <f t="shared" si="5"/>
@@ -27511,7 +27553,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B353" t="str">
         <f t="shared" si="5"/>
@@ -27523,7 +27565,7 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B354" t="str">
         <f t="shared" si="5"/>
@@ -27535,7 +27577,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B355" t="str">
         <f t="shared" si="5"/>
@@ -27547,7 +27589,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B356" t="str">
         <f t="shared" si="5"/>
@@ -27559,7 +27601,7 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B357" t="str">
         <f t="shared" si="5"/>
@@ -27571,7 +27613,7 @@
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B358" t="str">
         <f t="shared" si="5"/>
@@ -27583,7 +27625,7 @@
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B359" t="str">
         <f t="shared" si="5"/>
@@ -27595,7 +27637,7 @@
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B360" t="str">
         <f t="shared" si="5"/>
@@ -27607,7 +27649,7 @@
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B361" t="str">
         <f t="shared" si="5"/>
@@ -27619,7 +27661,7 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B362" t="str">
         <f t="shared" si="5"/>
@@ -27631,7 +27673,7 @@
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B363" t="str">
         <f t="shared" si="5"/>
@@ -27643,7 +27685,7 @@
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B364" t="str">
         <f t="shared" si="5"/>
@@ -27655,7 +27697,7 @@
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B365" t="str">
         <f t="shared" si="5"/>
@@ -27667,7 +27709,7 @@
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B366" t="str">
         <f t="shared" si="5"/>
@@ -27679,7 +27721,7 @@
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B367" t="str">
         <f t="shared" si="5"/>
@@ -27691,7 +27733,7 @@
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B368" t="str">
         <f t="shared" si="5"/>
@@ -27703,7 +27745,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B369" t="str">
         <f t="shared" si="5"/>
@@ -27715,7 +27757,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B370" t="str">
         <f t="shared" si="5"/>
@@ -27727,7 +27769,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B371" t="str">
         <f t="shared" si="5"/>
@@ -27739,7 +27781,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B372" t="str">
         <f t="shared" si="5"/>
@@ -27751,7 +27793,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B373" t="str">
         <f t="shared" si="5"/>
@@ -27763,7 +27805,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B374" t="str">
         <f t="shared" si="5"/>
@@ -27775,7 +27817,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B375" t="str">
         <f t="shared" si="5"/>
@@ -27787,7 +27829,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B376" t="str">
         <f t="shared" si="5"/>
@@ -27799,7 +27841,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B377" t="str">
         <f t="shared" si="5"/>
@@ -27811,7 +27853,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B378" t="str">
         <f t="shared" si="5"/>
@@ -27823,7 +27865,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B379" t="str">
         <f t="shared" si="5"/>
@@ -27835,7 +27877,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B380" t="str">
         <f t="shared" si="5"/>
@@ -27847,7 +27889,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B381" t="str">
         <f t="shared" si="5"/>
@@ -27859,7 +27901,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B382" t="str">
         <f t="shared" si="5"/>
@@ -27871,7 +27913,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B383" t="str">
         <f t="shared" si="5"/>
@@ -27883,7 +27925,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B384" t="str">
         <f t="shared" si="5"/>
@@ -27895,7 +27937,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B385" t="str">
         <f t="shared" si="5"/>
@@ -27907,7 +27949,7 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B386" t="str">
         <f t="shared" si="5"/>
@@ -27919,7 +27961,7 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B387" t="str">
         <f t="shared" ref="B387:B450" si="6">UPPER(A387)</f>
@@ -27931,7 +27973,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B388" t="str">
         <f t="shared" si="6"/>
@@ -27943,7 +27985,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B389" t="str">
         <f t="shared" si="6"/>
@@ -27955,7 +27997,7 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B390" t="str">
         <f t="shared" si="6"/>
@@ -27967,7 +28009,7 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B391" t="str">
         <f t="shared" si="6"/>
@@ -27979,7 +28021,7 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B392" t="str">
         <f t="shared" si="6"/>
@@ -27991,7 +28033,7 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B393" t="str">
         <f t="shared" si="6"/>
@@ -28003,7 +28045,7 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B394" t="str">
         <f t="shared" si="6"/>
@@ -28015,7 +28057,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B395" t="str">
         <f t="shared" si="6"/>
@@ -28027,7 +28069,7 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B396" t="str">
         <f t="shared" si="6"/>
@@ -28039,7 +28081,7 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B397" t="str">
         <f t="shared" si="6"/>
@@ -28051,7 +28093,7 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B398" t="str">
         <f t="shared" si="6"/>
@@ -28063,7 +28105,7 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B399" t="str">
         <f t="shared" si="6"/>
@@ -28075,7 +28117,7 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B400" t="str">
         <f t="shared" si="6"/>
@@ -28087,7 +28129,7 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B401" t="str">
         <f t="shared" si="6"/>
@@ -28099,7 +28141,7 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B402" t="str">
         <f t="shared" si="6"/>
@@ -28111,7 +28153,7 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B403" t="str">
         <f t="shared" si="6"/>
@@ -28123,7 +28165,7 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B404" t="str">
         <f t="shared" si="6"/>
@@ -28135,7 +28177,7 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B405" t="str">
         <f t="shared" si="6"/>
@@ -28147,7 +28189,7 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B406" t="str">
         <f t="shared" si="6"/>
@@ -28159,7 +28201,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B407" t="str">
         <f t="shared" si="6"/>
@@ -28171,7 +28213,7 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B408" t="str">
         <f t="shared" si="6"/>
@@ -28183,7 +28225,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B409" t="str">
         <f t="shared" si="6"/>
@@ -28195,7 +28237,7 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B410" t="str">
         <f t="shared" si="6"/>
@@ -28207,7 +28249,7 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B411" t="str">
         <f t="shared" si="6"/>
@@ -28219,7 +28261,7 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B412" t="str">
         <f t="shared" si="6"/>
@@ -28231,7 +28273,7 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B413" t="str">
         <f t="shared" si="6"/>
@@ -28243,7 +28285,7 @@
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B414" t="str">
         <f t="shared" si="6"/>
@@ -28255,7 +28297,7 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B415" t="str">
         <f t="shared" si="6"/>
@@ -28267,7 +28309,7 @@
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B416" t="str">
         <f t="shared" si="6"/>
@@ -28279,7 +28321,7 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B417" t="str">
         <f t="shared" si="6"/>
@@ -28291,7 +28333,7 @@
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B418" t="str">
         <f t="shared" si="6"/>
@@ -28303,7 +28345,7 @@
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B419" t="str">
         <f t="shared" si="6"/>
@@ -28315,7 +28357,7 @@
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B420" t="str">
         <f t="shared" si="6"/>
@@ -28327,7 +28369,7 @@
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B421" t="str">
         <f t="shared" si="6"/>
@@ -28339,7 +28381,7 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B422" t="str">
         <f t="shared" si="6"/>
@@ -28351,7 +28393,7 @@
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B423" t="str">
         <f t="shared" si="6"/>
@@ -28363,7 +28405,7 @@
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B424" t="str">
         <f t="shared" si="6"/>
@@ -28375,7 +28417,7 @@
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B425" t="str">
         <f t="shared" si="6"/>
@@ -28387,7 +28429,7 @@
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B426" t="str">
         <f t="shared" si="6"/>
@@ -28399,7 +28441,7 @@
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B427" t="str">
         <f t="shared" si="6"/>
@@ -28411,7 +28453,7 @@
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B428" t="str">
         <f t="shared" si="6"/>
@@ -28423,7 +28465,7 @@
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B429" t="str">
         <f t="shared" si="6"/>
@@ -28435,7 +28477,7 @@
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B430" t="str">
         <f t="shared" si="6"/>
@@ -28447,7 +28489,7 @@
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B431" t="str">
         <f t="shared" si="6"/>
@@ -28459,7 +28501,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B432" t="str">
         <f t="shared" si="6"/>
@@ -28471,7 +28513,7 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B433" t="str">
         <f t="shared" si="6"/>
@@ -28483,7 +28525,7 @@
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B434" t="str">
         <f t="shared" si="6"/>
@@ -28495,7 +28537,7 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B435" t="str">
         <f t="shared" si="6"/>
@@ -28507,7 +28549,7 @@
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B436" t="str">
         <f t="shared" si="6"/>
@@ -28519,7 +28561,7 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B437" t="str">
         <f t="shared" si="6"/>
@@ -28531,7 +28573,7 @@
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B438" t="str">
         <f t="shared" si="6"/>
@@ -28543,7 +28585,7 @@
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B439" t="str">
         <f t="shared" si="6"/>
@@ -28555,7 +28597,7 @@
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B440" t="str">
         <f t="shared" si="6"/>
@@ -28567,7 +28609,7 @@
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B441" t="str">
         <f t="shared" si="6"/>
@@ -28579,7 +28621,7 @@
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B442" t="str">
         <f t="shared" si="6"/>
@@ -28591,7 +28633,7 @@
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B443" t="str">
         <f t="shared" si="6"/>
@@ -28603,7 +28645,7 @@
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B444" t="str">
         <f t="shared" si="6"/>
@@ -28615,7 +28657,7 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B445" t="str">
         <f t="shared" si="6"/>
@@ -28627,7 +28669,7 @@
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B446" t="str">
         <f t="shared" si="6"/>
@@ -28639,7 +28681,7 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B447" t="str">
         <f t="shared" si="6"/>
@@ -28651,7 +28693,7 @@
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B448" t="str">
         <f t="shared" si="6"/>
@@ -28663,7 +28705,7 @@
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B449" t="str">
         <f t="shared" si="6"/>
@@ -28675,7 +28717,7 @@
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B450" t="str">
         <f t="shared" si="6"/>
@@ -28687,7 +28729,7 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B451" t="str">
         <f t="shared" ref="B451:B514" si="7">UPPER(A451)</f>
@@ -28699,7 +28741,7 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B452" t="str">
         <f t="shared" si="7"/>
@@ -28711,7 +28753,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B453" t="str">
         <f t="shared" si="7"/>
@@ -28723,7 +28765,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B454" t="str">
         <f t="shared" si="7"/>
@@ -28735,7 +28777,7 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="B455" t="str">
         <f t="shared" si="7"/>
@@ -28747,7 +28789,7 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B456" t="str">
         <f t="shared" si="7"/>
@@ -28759,7 +28801,7 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="B457" t="str">
         <f t="shared" si="7"/>
@@ -28771,7 +28813,7 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B458" t="str">
         <f t="shared" si="7"/>
@@ -28783,7 +28825,7 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B459" t="str">
         <f t="shared" si="7"/>
@@ -28795,7 +28837,7 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B460" t="str">
         <f t="shared" si="7"/>
@@ -28807,7 +28849,7 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B461" t="str">
         <f t="shared" si="7"/>
@@ -28819,7 +28861,7 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B462" t="str">
         <f t="shared" si="7"/>
@@ -28831,7 +28873,7 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B463" t="str">
         <f t="shared" si="7"/>
@@ -28843,7 +28885,7 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="B464" t="str">
         <f t="shared" si="7"/>
@@ -28855,7 +28897,7 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B465" t="str">
         <f t="shared" si="7"/>
@@ -28867,7 +28909,7 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="B466" t="str">
         <f t="shared" si="7"/>
@@ -28879,7 +28921,7 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B467" t="str">
         <f t="shared" si="7"/>
@@ -28891,7 +28933,7 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B468" t="str">
         <f t="shared" si="7"/>
@@ -28903,7 +28945,7 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="B469" t="str">
         <f t="shared" si="7"/>
@@ -28915,7 +28957,7 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="B470" t="str">
         <f t="shared" si="7"/>
@@ -28927,7 +28969,7 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B471" t="str">
         <f t="shared" si="7"/>
@@ -28939,7 +28981,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="B472" t="str">
         <f t="shared" si="7"/>
@@ -28951,7 +28993,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B473" t="str">
         <f t="shared" si="7"/>
@@ -28963,7 +29005,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B474" t="str">
         <f t="shared" si="7"/>
@@ -28975,7 +29017,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="B475" t="str">
         <f t="shared" si="7"/>
@@ -28987,7 +29029,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B476" t="str">
         <f t="shared" si="7"/>
@@ -28999,7 +29041,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B477" t="str">
         <f t="shared" si="7"/>
@@ -29011,7 +29053,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B478" t="str">
         <f t="shared" si="7"/>
@@ -29023,7 +29065,7 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B479" t="str">
         <f t="shared" si="7"/>
@@ -29035,7 +29077,7 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B480" t="str">
         <f t="shared" si="7"/>
@@ -29047,7 +29089,7 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="B481" t="str">
         <f t="shared" si="7"/>
@@ -29059,7 +29101,7 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="B482" t="str">
         <f t="shared" si="7"/>
@@ -29071,7 +29113,7 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B483" t="str">
         <f t="shared" si="7"/>
@@ -29083,7 +29125,7 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B484" t="str">
         <f t="shared" si="7"/>
@@ -29095,7 +29137,7 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B485" t="str">
         <f t="shared" si="7"/>
@@ -29107,7 +29149,7 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B486" t="str">
         <f t="shared" si="7"/>
@@ -29119,7 +29161,7 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B487" t="str">
         <f t="shared" si="7"/>
@@ -29131,7 +29173,7 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B488" t="str">
         <f t="shared" si="7"/>
@@ -29143,7 +29185,7 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B489" t="str">
         <f t="shared" si="7"/>
@@ -29155,7 +29197,7 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B490" t="str">
         <f t="shared" si="7"/>
@@ -29167,7 +29209,7 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="B491" t="str">
         <f t="shared" si="7"/>
@@ -29179,7 +29221,7 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="B492" t="str">
         <f t="shared" si="7"/>
@@ -29191,7 +29233,7 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B493" t="str">
         <f t="shared" si="7"/>
@@ -29203,7 +29245,7 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B494" t="str">
         <f t="shared" si="7"/>
@@ -29215,7 +29257,7 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B495" t="str">
         <f t="shared" si="7"/>
@@ -29227,7 +29269,7 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B496" t="str">
         <f t="shared" si="7"/>
@@ -29239,7 +29281,7 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B497" t="str">
         <f t="shared" si="7"/>
@@ -29251,7 +29293,7 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B498" t="str">
         <f t="shared" si="7"/>
@@ -29263,7 +29305,7 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B499" t="str">
         <f t="shared" si="7"/>
@@ -29275,7 +29317,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B500" t="str">
         <f t="shared" si="7"/>
@@ -29287,7 +29329,7 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B501" t="str">
         <f t="shared" si="7"/>
@@ -29299,7 +29341,7 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="B502" t="str">
         <f t="shared" si="7"/>
@@ -29311,7 +29353,7 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B503" t="str">
         <f t="shared" si="7"/>
@@ -29323,7 +29365,7 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B504" t="str">
         <f t="shared" si="7"/>
@@ -29335,7 +29377,7 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B505" t="str">
         <f t="shared" si="7"/>
@@ -29347,7 +29389,7 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B506" t="str">
         <f t="shared" si="7"/>
@@ -29359,7 +29401,7 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B507" t="str">
         <f t="shared" si="7"/>
@@ -29371,7 +29413,7 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B508" t="str">
         <f t="shared" si="7"/>
@@ -29383,7 +29425,7 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B509" t="str">
         <f t="shared" si="7"/>
@@ -29395,7 +29437,7 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B510" t="str">
         <f t="shared" si="7"/>
@@ -29407,7 +29449,7 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B511" t="str">
         <f t="shared" si="7"/>
@@ -29419,7 +29461,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B512" t="str">
         <f t="shared" si="7"/>
@@ -29431,7 +29473,7 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B513" t="str">
         <f t="shared" si="7"/>
@@ -29443,7 +29485,7 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B514" t="str">
         <f t="shared" si="7"/>
@@ -29455,7 +29497,7 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B515" t="str">
         <f t="shared" ref="B515:B523" si="8">UPPER(A515)</f>
@@ -29467,7 +29509,7 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B516" t="str">
         <f t="shared" si="8"/>
@@ -29479,7 +29521,7 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="B517" t="str">
         <f t="shared" si="8"/>
@@ -29491,7 +29533,7 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="B518" t="str">
         <f t="shared" si="8"/>
@@ -29503,7 +29545,7 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B519" t="str">
         <f t="shared" si="8"/>
@@ -29515,7 +29557,7 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="B520" t="str">
         <f t="shared" si="8"/>
@@ -29527,7 +29569,7 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="B521" t="str">
         <f t="shared" si="8"/>
@@ -29539,7 +29581,7 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="B522" t="str">
         <f t="shared" si="8"/>
@@ -29551,7 +29593,7 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="B523" t="str">
         <f t="shared" si="8"/>
